--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H2">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>616.1858408647823</v>
+        <v>298.1092115270585</v>
       </c>
       <c r="R2">
-        <v>5545.672567783041</v>
+        <v>2682.982903743527</v>
       </c>
       <c r="S2">
-        <v>0.0006730901982101199</v>
+        <v>0.0003637312578819696</v>
       </c>
       <c r="T2">
-        <v>0.00067309019821012</v>
+        <v>0.0003637312578819695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H3">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>1654.586247797554</v>
+        <v>1565.384568191207</v>
       </c>
       <c r="R3">
-        <v>14891.27623017799</v>
+        <v>14088.46111372087</v>
       </c>
       <c r="S3">
-        <v>0.001807386200115859</v>
+        <v>0.001909968816933155</v>
       </c>
       <c r="T3">
-        <v>0.001807386200115859</v>
+        <v>0.001909968816933155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H4">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>749.1559613748661</v>
+        <v>780.5295138622695</v>
       </c>
       <c r="R4">
-        <v>6742.403652373795</v>
+        <v>7024.765624760425</v>
       </c>
       <c r="S4">
-        <v>0.0008183400219395103</v>
+        <v>0.0009523455529496658</v>
       </c>
       <c r="T4">
-        <v>0.0008183400219395103</v>
+        <v>0.0009523455529496658</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H5">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>2366.745344471459</v>
+        <v>1853.321344194802</v>
       </c>
       <c r="R5">
-        <v>21300.70810024313</v>
+        <v>16679.89209775322</v>
       </c>
       <c r="S5">
-        <v>0.002585312721219689</v>
+        <v>0.002261288406119215</v>
       </c>
       <c r="T5">
-        <v>0.00258531272121969</v>
+        <v>0.002261288406119215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J6">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>100633.3623197161</v>
+        <v>51460.50299546646</v>
       </c>
       <c r="R6">
-        <v>905700.2608774446</v>
+        <v>463144.5269591981</v>
       </c>
       <c r="S6">
-        <v>0.1099267871771701</v>
+        <v>0.06278837674924016</v>
       </c>
       <c r="T6">
-        <v>0.1099267871771701</v>
+        <v>0.06278837674924015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J7">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>270221.3623249572</v>
@@ -883,10 +883,10 @@
         <v>2431992.260924615</v>
       </c>
       <c r="S7">
-        <v>0.2951761275018118</v>
+        <v>0.3297045251354632</v>
       </c>
       <c r="T7">
-        <v>0.2951761275018118</v>
+        <v>0.3297045251354631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J8">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>122349.5872433654</v>
+        <v>134737.337301345</v>
       </c>
       <c r="R8">
-        <v>1101146.285190288</v>
+        <v>1212636.035712105</v>
       </c>
       <c r="S8">
-        <v>0.1336484911970491</v>
+        <v>0.1643967354421623</v>
       </c>
       <c r="T8">
-        <v>0.1336484911970491</v>
+        <v>0.1643967354421623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J9">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>386528.748266001</v>
+        <v>319925.8690999618</v>
       </c>
       <c r="R9">
-        <v>3478758.734394009</v>
+        <v>2879332.821899656</v>
       </c>
       <c r="S9">
-        <v>0.4222244240781968</v>
+        <v>0.3903503625420483</v>
       </c>
       <c r="T9">
-        <v>0.4222244240781969</v>
+        <v>0.3903503625420482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H10">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I10">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J10">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>3404.99383688377</v>
+        <v>2533.299433026199</v>
       </c>
       <c r="R10">
-        <v>30644.94453195393</v>
+        <v>22799.69489723579</v>
       </c>
       <c r="S10">
-        <v>0.003719442779398866</v>
+        <v>0.003090948396549844</v>
       </c>
       <c r="T10">
-        <v>0.003719442779398866</v>
+        <v>0.003090948396549843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H11">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I11">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J11">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>9143.111708695727</v>
+        <v>13302.46663212151</v>
       </c>
       <c r="R11">
-        <v>82288.00537826154</v>
+        <v>119722.1996890935</v>
       </c>
       <c r="S11">
-        <v>0.009987472064639276</v>
+        <v>0.01623070584182637</v>
       </c>
       <c r="T11">
-        <v>0.009987472064639276</v>
+        <v>0.01623070584182637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H12">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I12">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J12">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>4139.7761230056</v>
+        <v>6632.854331467134</v>
       </c>
       <c r="R12">
-        <v>37257.98510705041</v>
+        <v>59695.68898320421</v>
       </c>
       <c r="S12">
-        <v>0.004522081726624463</v>
+        <v>0.00809292821571677</v>
       </c>
       <c r="T12">
-        <v>0.004522081726624463</v>
+        <v>0.008092928215716768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H13">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I13">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J13">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>13078.44610659775</v>
+        <v>15749.32182207289</v>
       </c>
       <c r="R13">
-        <v>117706.0149593797</v>
+        <v>141743.896398656</v>
       </c>
       <c r="S13">
-        <v>0.01428623200723952</v>
+        <v>0.01921618123702483</v>
       </c>
       <c r="T13">
-        <v>0.01428623200723952</v>
+        <v>0.01921618123702482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H14">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>65.43032952860445</v>
+        <v>34.872493450102</v>
       </c>
       <c r="R14">
-        <v>588.8729657574401</v>
+        <v>313.852441050918</v>
       </c>
       <c r="S14">
-        <v>7.147277744901349E-05</v>
+        <v>4.254888952646482E-05</v>
       </c>
       <c r="T14">
-        <v>7.14727774490135E-05</v>
+        <v>4.254888952646481E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H15">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>175.6939485577178</v>
+        <v>183.11699535049</v>
       </c>
       <c r="R15">
-        <v>1581.24553701946</v>
+        <v>1648.05295815441</v>
       </c>
       <c r="S15">
-        <v>0.0001919191692121075</v>
+        <v>0.0002234260884365693</v>
       </c>
       <c r="T15">
-        <v>0.0001919191692121075</v>
+        <v>0.0002234260884365693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H16">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>79.54989902442844</v>
+        <v>91.30549915027599</v>
       </c>
       <c r="R16">
-        <v>715.949091219856</v>
+        <v>821.749492352484</v>
       </c>
       <c r="S16">
-        <v>8.689627990607702E-05</v>
+        <v>0.0001114043537512646</v>
       </c>
       <c r="T16">
-        <v>8.689627990607702E-05</v>
+        <v>0.0001114043537512646</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H17">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>251.3152973163502</v>
+        <v>216.799528284624</v>
       </c>
       <c r="R17">
-        <v>2261.837675847152</v>
+        <v>1951.195754561616</v>
       </c>
       <c r="S17">
-        <v>0.0002745240998178306</v>
+        <v>0.0002645230743700998</v>
       </c>
       <c r="T17">
-        <v>0.0002745240998178306</v>
+        <v>0.0002645230743700998</v>
       </c>
     </row>
   </sheetData>
